--- a/data/teaching-experience.xlsx
+++ b/data/teaching-experience.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D673B76-88C2-4B4F-B945-9F71D876F806}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CE7269-0CCA-4C86-97E8-41C939AF3569}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="19200" windowHeight="9585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,6 @@
     <t>University Park, PA</t>
   </si>
   <si>
-    <t>Teaching over 30 staff members of the Penn State Accessibility team HTML5/CSS3/JavaScript coding and accessibility evaluation practice.</t>
-  </si>
-  <si>
     <t>what</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>Taught English to 10-grade high school students.</t>
+  </si>
+  <si>
+    <t>Teaching over 100 staff members of the Penn State Accessibility team HTML5/CSS3/JavaScript coding and accessibility evaluation practice.</t>
   </si>
 </sst>
 </file>
@@ -877,26 +877,26 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -910,24 +910,24 @@
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/data/teaching-experience.xlsx
+++ b/data/teaching-experience.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CE7269-0CCA-4C86-97E8-41C939AF3569}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA1614E-9D20-4C82-87FC-7E72001A7566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="880" yWindow="720" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Accessibility Instructor</t>
   </si>
   <si>
-    <t>Mar. 2015 - Present</t>
-  </si>
-  <si>
     <t>IT Accessibility Team, Teaching and Learning with Technology (TLT)</t>
   </si>
   <si>
@@ -65,6 +62,24 @@
   </si>
   <si>
     <t>Teaching over 100 staff members of the Penn State Accessibility team HTML5/CSS3/JavaScript coding and accessibility evaluation practice.</t>
+  </si>
+  <si>
+    <t>Mar. 2015 - Aug. 2021</t>
+  </si>
+  <si>
+    <t>Fall 2021</t>
+  </si>
+  <si>
+    <t>Champaign, IL</t>
+  </si>
+  <si>
+    <t>School of Information Sciences, University of Illinois at Urbana-Champaign</t>
+  </si>
+  <si>
+    <t>IS 226: Introduction to Human-Computer Interaction</t>
+  </si>
+  <si>
+    <t>Co-Instructor</t>
   </si>
 </sst>
 </file>
@@ -873,7 +888,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -881,53 +896,70 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
